--- a/method/DS_final_result.xlsx
+++ b/method/DS_final_result.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01jac\OneDrive\桌面\DS_Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01jac\OneDrive\桌面\DS\method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5BB12-AD03-447D-8AFE-E1AD2DCD61AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DC17B-8931-409E-8D33-D144EA5B0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="13644" windowHeight="11328" xr2:uid="{F7DC0C7A-1875-4BA0-84D4-4C3144C87EFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DC0C7A-1875-4BA0-84D4-4C3144C87EFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>out of time(&gt;60)</t>
   </si>
   <si>
@@ -73,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>54 min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgboost_noprepocsssing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time(min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +78,6 @@
   </si>
   <si>
     <t>cost = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> gamma = 0.0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost = 0.0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,9 +199,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,36 +517,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A89D68-050A-490C-B3FB-963AC31B0F2D}">
-  <dimension ref="C1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E89CE-95E5-41D0-BE90-284D67A9D3F0}">
+  <dimension ref="C2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="4"/>
-    </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -584,50 +554,46 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>0.38866000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0.40934999999999999</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
@@ -635,61 +601,56 @@
       <c r="E6" s="1">
         <v>0.5</v>
       </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>0.5</v>
+        <v>0.51154999999999995</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
+        <v>0.51244999999999996</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="1">
+        <v>0.51085999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.51290999999999998</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.51154999999999995</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.51244999999999996</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.51085999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.51290999999999998</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
